--- a/excel/excel-training/Level 2/IF Function Explained - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/IF Function Explained - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Excel Campus\Courses\Elevate\Course Files\Published\Level 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACCDCC1-1FD0-4560-B958-1D69F446CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFBC47E-A87F-FA49-8AFC-E8F14C9E639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="280">
   <si>
     <t>First Name</t>
   </si>
@@ -878,6 +878,9 @@
   </si>
   <si>
     <t>Nested IF vs VLOOKUP Formulas</t>
+  </si>
+  <si>
+    <t>https://www.excelcampus.com/functions/calculate-commissions-vlookup/</t>
   </si>
 </sst>
 </file>
@@ -1160,9 +1163,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1176,6 +1176,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1373,7 +1376,9 @@
     <tableColumn id="2" xr3:uid="{955A9380-FA7B-4884-91E7-CC1F5B7AF7DA}" name="Company"/>
     <tableColumn id="3" xr3:uid="{06709169-7220-4C8F-9400-F0131408EADF}" name="Product"/>
     <tableColumn id="4" xr3:uid="{6B04EC2B-0DF4-4860-B759-8A92C53A5DB8}" name="Amount" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{0769413B-316F-447F-9698-63198EF0CE42}" name="Size" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{0769413B-316F-447F-9698-63198EF0CE42}" name="Size" dataDxfId="3">
+      <calculatedColumnFormula>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1386,12 +1391,16 @@
     <tableColumn id="1" xr3:uid="{68F279A1-D9B1-414F-8F66-75B5F671EC76}" name="Date"/>
     <tableColumn id="2" xr3:uid="{3E6010FC-9C61-47ED-829C-47278C2B9BCA}" name="Company"/>
     <tableColumn id="3" xr3:uid="{067B979E-AB12-41B0-AF8A-951AB3B898BA}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{98D9A3F7-9F9A-48EC-BE2E-EF5E7FA3421A}" name="Amount" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{89FA4F20-B6BB-4617-8730-B9E6A3244898}" name="Size" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{98D9A3F7-9F9A-48EC-BE2E-EF5E7FA3421A}" name="Amount" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{89FA4F20-B6BB-4617-8730-B9E6A3244898}" name="Size" dataDxfId="5">
       <calculatedColumnFormula>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{66C41BBB-417F-483E-9580-0C94E4EA12E8}" name="Large and Prod 6" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B908A34C-2D47-4E4E-B793-E528CC130F1B}" name="Large or Prod 5" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{66C41BBB-417F-483E-9580-0C94E4EA12E8}" name="Large and Prod 6" dataDxfId="2">
+      <calculatedColumnFormula>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B908A34C-2D47-4E4E-B793-E528CC130F1B}" name="Large or Prod 5" dataDxfId="1">
+      <calculatedColumnFormula>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1404,8 +1413,10 @@
     <tableColumn id="1" xr3:uid="{8ADECA08-8796-4A17-A0C6-750C2E886435}" name="Date"/>
     <tableColumn id="2" xr3:uid="{14A8834C-FAF3-4CF2-9984-43C9B837C707}" name="Company"/>
     <tableColumn id="3" xr3:uid="{C986AE5F-1022-486F-A51F-97F2E69131DB}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{B8E72FC2-8737-465D-843A-8F219BD979B1}" name="Amount" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{9934E07F-219D-4E4C-B4D0-F3DFBDADC83B}" name="Size" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B8E72FC2-8737-465D-843A-8F219BD979B1}" name="Amount" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{9934E07F-219D-4E4C-B4D0-F3DFBDADC83B}" name="Size" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1676,18 +1687,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB63269-2F46-4367-9836-33EBEE067F3B}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="23" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="23" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>277</v>
       </c>
@@ -1700,17 +1711,17 @@
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -1718,7 +1729,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="19">
         <v>2</v>
       </c>
@@ -1726,7 +1737,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -1734,7 +1745,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="19">
         <v>4</v>
       </c>
@@ -1742,7 +1753,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="19">
         <v>5</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="19">
         <v>6</v>
       </c>
@@ -1758,7 +1769,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="19">
         <v>7</v>
       </c>
@@ -1766,7 +1777,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="19">
         <v>8</v>
       </c>
@@ -1774,17 +1785,17 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="26" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="21" t="s">
         <v>276</v>
       </c>
@@ -1812,36 +1823,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>229</v>
       </c>
       <c r="B3" t="s">
         <v>230</v>
       </c>
+      <c r="C3" t="b">
+        <f>A3=B3</f>
+        <v>0</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
+      </c>
+      <c r="C4" t="b">
+        <f>A4=B4</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1872,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DF0929-A3E8-449E-AA08-81CD97E5C10D}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>231</v>
       </c>
@@ -1876,7 +1895,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -1884,7 +1903,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>235</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>237</v>
       </c>
@@ -1900,7 +1919,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -1908,7 +1927,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -1916,7 +1935,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>243</v>
       </c>
@@ -1933,23 +1952,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1960,12 +1979,16 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>229</v>
       </c>
       <c r="B4" t="s">
         <v>229</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(A4=B4,"Match","No Match")</f>
+        <v>Match</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1979,28 +2002,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2014,7 +2037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2029,7 +2052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2059,7 +2082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2074,7 +2097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2089,7 +2112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2114,24 +2137,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CFE827-8239-434E-9ADE-96222F780825}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>250</v>
       </c>
@@ -2139,10 +2162,10 @@
         <v>80000</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>252</v>
       </c>
@@ -2153,11 +2176,11 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="2"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2174,7 +2197,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2187,8 +2210,12 @@
       <c r="D6" s="5">
         <v>41634</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2201,8 +2228,12 @@
       <c r="D7" s="5">
         <v>92990</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2215,8 +2246,12 @@
       <c r="D8" s="5">
         <v>38516</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2229,8 +2264,12 @@
       <c r="D9" s="5">
         <v>98805</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2243,8 +2282,12 @@
       <c r="D10" s="5">
         <v>30739</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2257,8 +2300,12 @@
       <c r="D11" s="5">
         <v>70825</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2271,8 +2318,12 @@
       <c r="D12" s="5">
         <v>93110</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2285,8 +2336,12 @@
       <c r="D13" s="5">
         <v>75546</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2299,8 +2354,12 @@
       <c r="D14" s="5">
         <v>47120</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2313,8 +2372,12 @@
       <c r="D15" s="5">
         <v>91739</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2327,8 +2390,12 @@
       <c r="D16" s="5">
         <v>90832</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2341,8 +2408,12 @@
       <c r="D17" s="5">
         <v>27364</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2355,8 +2426,12 @@
       <c r="D18" s="5">
         <v>90309</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2369,8 +2444,12 @@
       <c r="D19" s="5">
         <v>59638</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2383,8 +2462,12 @@
       <c r="D20" s="5">
         <v>67320</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2397,8 +2480,12 @@
       <c r="D21" s="5">
         <v>7640</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2411,8 +2498,12 @@
       <c r="D22" s="5">
         <v>27258</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2425,8 +2516,12 @@
       <c r="D23" s="5">
         <v>32223</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2439,8 +2534,12 @@
       <c r="D24" s="5">
         <v>21329</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -2453,8 +2552,12 @@
       <c r="D25" s="5">
         <v>22332</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2467,8 +2570,12 @@
       <c r="D26" s="5">
         <v>79891</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -2481,8 +2588,12 @@
       <c r="D27" s="5">
         <v>42239</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2495,8 +2606,12 @@
       <c r="D28" s="5">
         <v>61352</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2509,8 +2624,12 @@
       <c r="D29" s="5">
         <v>53531</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2523,8 +2642,12 @@
       <c r="D30" s="5">
         <v>33291</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -2537,8 +2660,12 @@
       <c r="D31" s="5">
         <v>37840</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2551,8 +2678,12 @@
       <c r="D32" s="5">
         <v>44303</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -2565,8 +2696,12 @@
       <c r="D33" s="5">
         <v>81989</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -2579,8 +2714,12 @@
       <c r="D34" s="5">
         <v>59466</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -2593,8 +2732,12 @@
       <c r="D35" s="5">
         <v>65075</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2607,8 +2750,12 @@
       <c r="D36" s="5">
         <v>61532</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -2621,8 +2768,12 @@
       <c r="D37" s="5">
         <v>85140</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2635,8 +2786,12 @@
       <c r="D38" s="5">
         <v>13953</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -2649,8 +2804,12 @@
       <c r="D39" s="5">
         <v>2778</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -2663,8 +2822,12 @@
       <c r="D40" s="5">
         <v>60532</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -2677,8 +2840,12 @@
       <c r="D41" s="5">
         <v>45550</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -2691,8 +2858,12 @@
       <c r="D42" s="5">
         <v>71620</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -2705,8 +2876,12 @@
       <c r="D43" s="5">
         <v>1439</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>108</v>
       </c>
@@ -2719,8 +2894,12 @@
       <c r="D44" s="5">
         <v>32431</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -2733,8 +2912,12 @@
       <c r="D45" s="5">
         <v>42994</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -2747,8 +2930,12 @@
       <c r="D46" s="5">
         <v>93443</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -2761,8 +2948,12 @@
       <c r="D47" s="5">
         <v>34791</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -2775,8 +2966,12 @@
       <c r="D48" s="5">
         <v>14724</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -2789,8 +2984,12 @@
       <c r="D49" s="5">
         <v>6054</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -2803,8 +3002,12 @@
       <c r="D50" s="5">
         <v>98749</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -2817,8 +3020,12 @@
       <c r="D51" s="5">
         <v>87209</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -2831,8 +3038,12 @@
       <c r="D52" s="5">
         <v>31634</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -2845,8 +3056,12 @@
       <c r="D53" s="5">
         <v>38076</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -2859,8 +3074,12 @@
       <c r="D54" s="5">
         <v>66459</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -2873,8 +3092,12 @@
       <c r="D55" s="5">
         <v>30988</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -2887,8 +3110,12 @@
       <c r="D56" s="5">
         <v>88383</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -2901,8 +3128,12 @@
       <c r="D57" s="5">
         <v>61518</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -2915,8 +3146,12 @@
       <c r="D58" s="5">
         <v>31192</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -2929,8 +3164,12 @@
       <c r="D59" s="5">
         <v>87680</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -2943,8 +3182,12 @@
       <c r="D60" s="5">
         <v>18804</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -2957,8 +3200,12 @@
       <c r="D61" s="5">
         <v>12553</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -2971,8 +3218,12 @@
       <c r="D62" s="5">
         <v>51072</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2985,8 +3236,12 @@
       <c r="D63" s="5">
         <v>34888</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -2999,8 +3254,12 @@
       <c r="D64" s="5">
         <v>47174</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -3013,8 +3272,12 @@
       <c r="D65" s="5">
         <v>22639</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -3027,8 +3290,12 @@
       <c r="D66" s="5">
         <v>93911</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -3041,8 +3308,12 @@
       <c r="D67" s="5">
         <v>16842</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -3055,8 +3326,12 @@
       <c r="D68" s="5">
         <v>80264</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -3069,8 +3344,12 @@
       <c r="D69" s="5">
         <v>89734</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>154</v>
       </c>
@@ -3083,8 +3362,12 @@
       <c r="D70" s="5">
         <v>45541</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -3097,8 +3380,12 @@
       <c r="D71" s="5">
         <v>22433</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -3111,8 +3398,12 @@
       <c r="D72" s="5">
         <v>1350</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>160</v>
       </c>
@@ -3125,8 +3416,12 @@
       <c r="D73" s="5">
         <v>12949</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -3139,8 +3434,12 @@
       <c r="D74" s="5">
         <v>29891</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>164</v>
       </c>
@@ -3153,8 +3452,12 @@
       <c r="D75" s="5">
         <v>2610</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -3167,8 +3470,12 @@
       <c r="D76" s="5">
         <v>59503</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -3181,8 +3488,12 @@
       <c r="D77" s="5">
         <v>1258</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>170</v>
       </c>
@@ -3195,8 +3506,12 @@
       <c r="D78" s="5">
         <v>23231</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -3209,8 +3524,12 @@
       <c r="D79" s="5">
         <v>88612</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>174</v>
       </c>
@@ -3223,8 +3542,12 @@
       <c r="D80" s="5">
         <v>88206</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -3237,8 +3560,12 @@
       <c r="D81" s="5">
         <v>50671</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -3251,8 +3578,12 @@
       <c r="D82" s="5">
         <v>38797</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -3265,8 +3596,12 @@
       <c r="D83" s="5">
         <v>50990</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -3279,8 +3614,12 @@
       <c r="D84" s="5">
         <v>66293</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -3293,8 +3632,12 @@
       <c r="D85" s="5">
         <v>52515</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>185</v>
       </c>
@@ -3307,8 +3650,12 @@
       <c r="D86" s="5">
         <v>97419</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -3321,8 +3668,12 @@
       <c r="D87" s="5">
         <v>17301</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>189</v>
       </c>
@@ -3335,8 +3686,12 @@
       <c r="D88" s="5">
         <v>72532</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>191</v>
       </c>
@@ -3349,8 +3704,12 @@
       <c r="D89" s="5">
         <v>25073</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -3363,8 +3722,12 @@
       <c r="D90" s="5">
         <v>95746</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>195</v>
       </c>
@@ -3377,8 +3740,12 @@
       <c r="D91" s="5">
         <v>34358</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>197</v>
       </c>
@@ -3391,8 +3758,12 @@
       <c r="D92" s="5">
         <v>8805</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>199</v>
       </c>
@@ -3405,8 +3776,12 @@
       <c r="D93" s="5">
         <v>87062</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>201</v>
       </c>
@@ -3419,8 +3794,12 @@
       <c r="D94" s="5">
         <v>47020</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -3433,8 +3812,12 @@
       <c r="D95" s="5">
         <v>38703</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -3447,8 +3830,12 @@
       <c r="D96" s="5">
         <v>93977</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -3461,8 +3848,12 @@
       <c r="D97" s="5">
         <v>29812</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -3475,8 +3866,12 @@
       <c r="D98" s="5">
         <v>12269</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>210</v>
       </c>
@@ -3489,8 +3884,12 @@
       <c r="D99" s="5">
         <v>36575</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -3503,8 +3902,12 @@
       <c r="D100" s="5">
         <v>36649</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>71</v>
       </c>
@@ -3517,8 +3920,12 @@
       <c r="D101" s="5">
         <v>98152</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>197</v>
       </c>
@@ -3531,8 +3938,12 @@
       <c r="D102" s="5">
         <v>74147</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>216</v>
       </c>
@@ -3545,8 +3956,12 @@
       <c r="D103" s="5">
         <v>71410</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>218</v>
       </c>
@@ -3559,8 +3974,12 @@
       <c r="D104" s="5">
         <v>86898</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>220</v>
       </c>
@@ -3572,6 +3991,10 @@
       </c>
       <c r="D105" s="5">
         <v>82643</v>
+      </c>
+      <c r="E105" t="str">
+        <f>IF(tblGroupData[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
+        <v>Large</v>
       </c>
     </row>
   </sheetData>
@@ -3587,26 +4010,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF16DC7-3DCA-4CEB-B07A-928C75F5F3E0}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="B1" zoomScale="191" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>250</v>
       </c>
@@ -3617,7 +4040,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>252</v>
       </c>
@@ -3634,11 +4057,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" s="2"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3661,7 +4084,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3678,8 +4101,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -3696,8 +4127,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3714,8 +4153,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3732,8 +4179,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -3750,8 +4205,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -3768,8 +4231,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3786,8 +4257,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -3804,8 +4283,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -3822,8 +4309,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3840,8 +4335,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -3858,8 +4361,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3876,8 +4387,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -3894,8 +4413,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -3912,8 +4439,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -3930,8 +4465,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4491,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3966,8 +4517,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -3984,8 +4543,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -4002,8 +4569,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -4020,8 +4595,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -4038,8 +4621,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -4056,8 +4647,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -4074,8 +4673,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -4092,8 +4699,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -4110,8 +4725,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -4128,8 +4751,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -4146,8 +4777,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -4164,8 +4803,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -4182,8 +4829,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -4200,8 +4855,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -4218,8 +4881,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -4236,8 +4907,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -4254,8 +4933,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -4272,8 +4959,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -4290,8 +4985,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -4308,8 +5011,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -4326,8 +5037,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -4344,8 +5063,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>108</v>
       </c>
@@ -4362,8 +5089,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -4380,8 +5115,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -4398,8 +5141,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -4416,8 +5167,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -4434,8 +5193,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -4452,8 +5219,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -4470,8 +5245,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -4488,8 +5271,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -4506,8 +5297,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -4524,8 +5323,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -4542,8 +5349,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -4560,8 +5375,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -4578,8 +5401,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -4596,8 +5427,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -4614,8 +5453,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -4632,8 +5479,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -4650,8 +5505,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -4668,8 +5531,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -4686,8 +5557,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4704,8 +5583,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -4722,8 +5609,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -4740,8 +5635,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -4758,8 +5661,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -4776,8 +5687,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -4794,8 +5713,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -4812,8 +5739,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>154</v>
       </c>
@@ -4830,8 +5765,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -4848,8 +5791,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -4866,8 +5817,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>160</v>
       </c>
@@ -4884,8 +5843,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -4902,8 +5869,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>164</v>
       </c>
@@ -4920,8 +5895,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -4938,8 +5921,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -4956,8 +5947,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>170</v>
       </c>
@@ -4974,8 +5973,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -4992,8 +5999,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>174</v>
       </c>
@@ -5010,8 +6025,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -5028,8 +6051,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -5046,8 +6077,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -5064,8 +6103,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -5082,8 +6129,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -5100,8 +6155,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G85" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>185</v>
       </c>
@@ -5118,8 +6181,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -5136,8 +6207,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>189</v>
       </c>
@@ -5154,8 +6233,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G88" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>191</v>
       </c>
@@ -5172,8 +6259,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -5190,8 +6285,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>195</v>
       </c>
@@ -5208,8 +6311,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G91" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>197</v>
       </c>
@@ -5226,8 +6337,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>199</v>
       </c>
@@ -5244,8 +6363,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>201</v>
       </c>
@@ -5262,8 +6389,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -5280,8 +6415,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -5298,8 +6441,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -5316,8 +6467,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -5334,8 +6493,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>210</v>
       </c>
@@ -5352,8 +6519,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G99" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -5370,8 +6545,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Small</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>71</v>
       </c>
@@ -5388,8 +6571,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G101" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>197</v>
       </c>
@@ -5406,8 +6597,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G102" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>216</v>
       </c>
@@ -5424,8 +6623,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>218</v>
       </c>
@@ -5442,8 +6649,16 @@
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G104" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>220</v>
       </c>
@@ -5459,6 +6674,14 @@
       <c r="E105" t="str">
         <f>IF(tblANDOR[[#This Row],[Amount]]&gt;=$D$2,$E$2,$E$3)</f>
         <v>Large</v>
+      </c>
+      <c r="F105" t="b">
+        <f>AND(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G105" t="b">
+        <f>OR(tblANDOR[[#This Row],[Size]]=$E$2,tblANDOR[[#This Row],[Product]]=$G$3)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5474,41 +6697,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A14" zoomScale="186" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
@@ -5516,7 +6739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -5524,7 +6747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -5532,7 +6755,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -5540,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -5548,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -5566,30 +6789,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B09EB8F-B3CB-4109-BB61-A0F2B7F08650}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2" s="10" t="s">
         <v>259</v>
       </c>
@@ -5600,7 +6823,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="13" t="s">
         <v>260</v>
       </c>
@@ -5611,7 +6834,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="13" t="s">
         <v>261</v>
       </c>
@@ -5622,7 +6845,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="13" t="s">
         <v>262</v>
       </c>
@@ -5633,7 +6856,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="15" t="s">
         <v>263</v>
       </c>
@@ -5644,11 +6867,14 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -5665,7 +6891,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -5678,8 +6904,12 @@
       <c r="D9" s="5">
         <v>41634</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5692,8 +6922,12 @@
       <c r="D10" s="5">
         <v>92990</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -5706,8 +6940,12 @@
       <c r="D11" s="5">
         <v>38516</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -5720,8 +6958,12 @@
       <c r="D12" s="5">
         <v>98805</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -5734,8 +6976,12 @@
       <c r="D13" s="5">
         <v>30739</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -5748,8 +6994,12 @@
       <c r="D14" s="5">
         <v>70825</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -5762,8 +7012,12 @@
       <c r="D15" s="5">
         <v>93110</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -5776,8 +7030,12 @@
       <c r="D16" s="5">
         <v>75546</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -5790,8 +7048,12 @@
       <c r="D17" s="5">
         <v>47120</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -5804,8 +7066,12 @@
       <c r="D18" s="5">
         <v>91739</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -5818,8 +7084,12 @@
       <c r="D19" s="5">
         <v>90832</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -5832,8 +7102,12 @@
       <c r="D20" s="5">
         <v>27364</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -5846,8 +7120,12 @@
       <c r="D21" s="5">
         <v>90309</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -5860,8 +7138,12 @@
       <c r="D22" s="5">
         <v>59638</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -5874,8 +7156,12 @@
       <c r="D23" s="5">
         <v>67320</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -5888,8 +7174,12 @@
       <c r="D24" s="5">
         <v>7640</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -5902,8 +7192,12 @@
       <c r="D25" s="5">
         <v>27258</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -5916,8 +7210,12 @@
       <c r="D26" s="5">
         <v>32223</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -5930,8 +7228,12 @@
       <c r="D27" s="5">
         <v>21329</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -5944,8 +7246,12 @@
       <c r="D28" s="5">
         <v>22332</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -5958,8 +7264,12 @@
       <c r="D29" s="5">
         <v>79891</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -5972,8 +7282,12 @@
       <c r="D30" s="5">
         <v>42239</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -5986,8 +7300,12 @@
       <c r="D31" s="5">
         <v>61352</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -6000,8 +7318,12 @@
       <c r="D32" s="5">
         <v>53531</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -6014,8 +7336,12 @@
       <c r="D33" s="5">
         <v>33291</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -6028,8 +7354,12 @@
       <c r="D34" s="5">
         <v>37840</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -6042,8 +7372,12 @@
       <c r="D35" s="5">
         <v>44303</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -6056,8 +7390,12 @@
       <c r="D36" s="5">
         <v>81989</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -6070,8 +7408,12 @@
       <c r="D37" s="5">
         <v>59466</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -6084,8 +7426,12 @@
       <c r="D38" s="5">
         <v>65075</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -6098,8 +7444,12 @@
       <c r="D39" s="5">
         <v>61532</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -6112,8 +7462,12 @@
       <c r="D40" s="5">
         <v>85140</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -6126,8 +7480,12 @@
       <c r="D41" s="5">
         <v>13953</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -6140,8 +7498,12 @@
       <c r="D42" s="5">
         <v>2778</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -6154,8 +7516,12 @@
       <c r="D43" s="5">
         <v>60532</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -6168,8 +7534,12 @@
       <c r="D44" s="5">
         <v>45550</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -6182,8 +7552,12 @@
       <c r="D45" s="5">
         <v>71620</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -6196,8 +7570,12 @@
       <c r="D46" s="5">
         <v>1439</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -6210,8 +7588,12 @@
       <c r="D47" s="5">
         <v>32431</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>110</v>
       </c>
@@ -6224,8 +7606,12 @@
       <c r="D48" s="5">
         <v>42994</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -6238,8 +7624,12 @@
       <c r="D49" s="5">
         <v>93443</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -6252,8 +7642,12 @@
       <c r="D50" s="5">
         <v>34791</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -6266,8 +7660,12 @@
       <c r="D51" s="5">
         <v>14724</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -6280,8 +7678,12 @@
       <c r="D52" s="5">
         <v>6054</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>119</v>
       </c>
@@ -6294,8 +7696,12 @@
       <c r="D53" s="5">
         <v>98749</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -6308,8 +7714,12 @@
       <c r="D54" s="5">
         <v>87209</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -6322,8 +7732,12 @@
       <c r="D55" s="5">
         <v>31634</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -6336,8 +7750,12 @@
       <c r="D56" s="5">
         <v>38076</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -6350,8 +7768,12 @@
       <c r="D57" s="5">
         <v>66459</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -6364,8 +7786,12 @@
       <c r="D58" s="5">
         <v>30988</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -6378,8 +7804,12 @@
       <c r="D59" s="5">
         <v>88383</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -6392,8 +7822,12 @@
       <c r="D60" s="5">
         <v>61518</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -6406,8 +7840,12 @@
       <c r="D61" s="5">
         <v>31192</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -6420,8 +7858,12 @@
       <c r="D62" s="5">
         <v>87680</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -6434,8 +7876,12 @@
       <c r="D63" s="5">
         <v>18804</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -6448,8 +7894,12 @@
       <c r="D64" s="5">
         <v>12553</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -6462,8 +7912,12 @@
       <c r="D65" s="5">
         <v>51072</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -6476,8 +7930,12 @@
       <c r="D66" s="5">
         <v>34888</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -6490,8 +7948,12 @@
       <c r="D67" s="5">
         <v>47174</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -6504,8 +7966,12 @@
       <c r="D68" s="5">
         <v>22639</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -6518,8 +7984,12 @@
       <c r="D69" s="5">
         <v>93911</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>148</v>
       </c>
@@ -6532,8 +8002,12 @@
       <c r="D70" s="5">
         <v>16842</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -6546,8 +8020,12 @@
       <c r="D71" s="5">
         <v>80264</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -6560,8 +8038,12 @@
       <c r="D72" s="5">
         <v>89734</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -6574,8 +8056,12 @@
       <c r="D73" s="5">
         <v>45541</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -6588,8 +8074,12 @@
       <c r="D74" s="5">
         <v>22433</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -6602,8 +8092,12 @@
       <c r="D75" s="5">
         <v>1350</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>160</v>
       </c>
@@ -6616,8 +8110,12 @@
       <c r="D76" s="5">
         <v>12949</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>162</v>
       </c>
@@ -6630,8 +8128,12 @@
       <c r="D77" s="5">
         <v>29891</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -6644,8 +8146,12 @@
       <c r="D78" s="5">
         <v>2610</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -6658,8 +8164,12 @@
       <c r="D79" s="5">
         <v>59503</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -6672,8 +8182,12 @@
       <c r="D80" s="5">
         <v>1258</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Small</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -6686,8 +8200,12 @@
       <c r="D81" s="5">
         <v>23231</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -6700,8 +8218,12 @@
       <c r="D82" s="5">
         <v>88612</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>174</v>
       </c>
@@ -6714,8 +8236,12 @@
       <c r="D83" s="5">
         <v>88206</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -6728,8 +8254,12 @@
       <c r="D84" s="5">
         <v>50671</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>178</v>
       </c>
@@ -6742,8 +8272,12 @@
       <c r="D85" s="5">
         <v>38797</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -6756,8 +8290,12 @@
       <c r="D86" s="5">
         <v>50990</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -6770,8 +8308,12 @@
       <c r="D87" s="5">
         <v>66293</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>166</v>
       </c>
@@ -6784,8 +8326,12 @@
       <c r="D88" s="5">
         <v>52515</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -6798,8 +8344,12 @@
       <c r="D89" s="5">
         <v>97419</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -6812,8 +8362,12 @@
       <c r="D90" s="5">
         <v>17301</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -6826,8 +8380,12 @@
       <c r="D91" s="5">
         <v>72532</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -6840,8 +8398,12 @@
       <c r="D92" s="5">
         <v>25073</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -6854,8 +8416,12 @@
       <c r="D93" s="5">
         <v>95746</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -6868,8 +8434,12 @@
       <c r="D94" s="5">
         <v>34358</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -6882,8 +8452,12 @@
       <c r="D95" s="5">
         <v>8805</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -6896,8 +8470,12 @@
       <c r="D96" s="5">
         <v>87062</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -6910,8 +8488,12 @@
       <c r="D97" s="5">
         <v>47020</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -6924,8 +8506,12 @@
       <c r="D98" s="5">
         <v>38703</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -6938,8 +8524,12 @@
       <c r="D99" s="5">
         <v>93977</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -6952,8 +8542,12 @@
       <c r="D100" s="5">
         <v>29812</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>208</v>
       </c>
@@ -6966,8 +8560,12 @@
       <c r="D101" s="5">
         <v>12269</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>210</v>
       </c>
@@ -6980,8 +8578,12 @@
       <c r="D102" s="5">
         <v>36575</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>212</v>
       </c>
@@ -6994,8 +8596,12 @@
       <c r="D103" s="5">
         <v>36649</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -7008,8 +8614,12 @@
       <c r="D104" s="5">
         <v>98152</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>197</v>
       </c>
@@ -7022,8 +8632,12 @@
       <c r="D105" s="5">
         <v>74147</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>216</v>
       </c>
@@ -7036,8 +8650,12 @@
       <c r="D106" s="5">
         <v>71410</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Large</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>218</v>
       </c>
@@ -7050,8 +8668,12 @@
       <c r="D107" s="5">
         <v>86898</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>220</v>
       </c>
@@ -7063,6 +8685,10 @@
       </c>
       <c r="D108" s="5">
         <v>82643</v>
+      </c>
+      <c r="E108" t="str">
+        <f>VLOOKUP(tblGroupData5[[#This Row],[Amount]],$D$3:$E$6,2,TRUE)</f>
+        <v>Key</v>
       </c>
     </row>
   </sheetData>
